--- a/Code/Results/Cases/Case_4_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.03097753623738</v>
+        <v>15.92361284117466</v>
       </c>
       <c r="C2">
-        <v>19.54983408029537</v>
+        <v>10.54777194214716</v>
       </c>
       <c r="D2">
-        <v>7.377765193508261</v>
+        <v>5.973310286292193</v>
       </c>
       <c r="E2">
-        <v>30.55068382096445</v>
+        <v>16.50105917307264</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>62.43095701100138</v>
+        <v>43.43456739963639</v>
       </c>
       <c r="H2">
-        <v>16.25439692439896</v>
+        <v>16.37313746056071</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.14418387524631</v>
+        <v>15.23726017800609</v>
       </c>
       <c r="C3">
-        <v>18.18101961707877</v>
+        <v>9.852321343010539</v>
       </c>
       <c r="D3">
-        <v>6.834412608815446</v>
+        <v>5.854069282555279</v>
       </c>
       <c r="E3">
-        <v>28.18355621458815</v>
+        <v>15.55777290136715</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.19671502524299</v>
+        <v>42.1053213618592</v>
       </c>
       <c r="H3">
-        <v>15.45677777432859</v>
+        <v>16.24519574023489</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93290861743333</v>
+        <v>14.80495104501015</v>
       </c>
       <c r="C4">
-        <v>17.30425019636346</v>
+        <v>9.398936252868783</v>
       </c>
       <c r="D4">
-        <v>6.486181175946607</v>
+        <v>5.781693534853252</v>
       </c>
       <c r="E4">
-        <v>26.6805209729157</v>
+        <v>14.9546961589656</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>55.55361742832294</v>
+        <v>41.28548885698525</v>
       </c>
       <c r="H4">
-        <v>14.97299378156204</v>
+        <v>16.17115921909263</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.42560130777598</v>
+        <v>14.62634306243389</v>
       </c>
       <c r="C5">
-        <v>16.93751032435041</v>
+        <v>9.207523888391128</v>
       </c>
       <c r="D5">
-        <v>6.340474048234558</v>
+        <v>5.752454022539622</v>
       </c>
       <c r="E5">
-        <v>26.05465157151921</v>
+        <v>14.70319893162104</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.46540679185902</v>
+        <v>40.95103312704209</v>
       </c>
       <c r="H5">
-        <v>14.77732177143398</v>
+        <v>16.14214273136993</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.34052392894087</v>
+        <v>14.59654750520033</v>
       </c>
       <c r="C6">
-        <v>16.87603427981064</v>
+        <v>9.175337477102685</v>
       </c>
       <c r="D6">
-        <v>6.316046539006848</v>
+        <v>5.747615442356307</v>
       </c>
       <c r="E6">
-        <v>25.94989485582426</v>
+        <v>14.66110036315606</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.28403802462869</v>
+        <v>40.89549158169497</v>
       </c>
       <c r="H6">
-        <v>14.74491998906872</v>
+        <v>16.13739472140733</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92612291407196</v>
+        <v>14.80255172727553</v>
       </c>
       <c r="C7">
-        <v>17.29934286226809</v>
+        <v>9.396381770561028</v>
       </c>
       <c r="D7">
-        <v>6.484231662021514</v>
+        <v>5.781298114094451</v>
       </c>
       <c r="E7">
-        <v>26.67213551682741</v>
+        <v>14.9513272185959</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>55.53898655247549</v>
+        <v>41.28097900330539</v>
       </c>
       <c r="H7">
-        <v>14.97034890253128</v>
+        <v>16.17076319902245</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.39108959004405</v>
+        <v>15.68938604657247</v>
       </c>
       <c r="C8">
-        <v>19.08519693060655</v>
+        <v>10.31344150268401</v>
       </c>
       <c r="D8">
-        <v>7.19336949702353</v>
+        <v>5.932047833800303</v>
       </c>
       <c r="E8">
-        <v>29.74421693873584</v>
+        <v>16.1809196962788</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>60.97969973727575</v>
+        <v>42.97732961778048</v>
       </c>
       <c r="H8">
-        <v>15.97810722830599</v>
+        <v>16.32809614817481</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.82857058739515</v>
+        <v>17.33073920920203</v>
       </c>
       <c r="C9">
-        <v>22.31631498407981</v>
+        <v>11.90352378336458</v>
       </c>
       <c r="D9">
-        <v>8.474578033812813</v>
+        <v>6.232437880512101</v>
       </c>
       <c r="E9">
-        <v>35.42293026341522</v>
+        <v>18.48617259078857</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.37335575323776</v>
+        <v>46.25187376538107</v>
       </c>
       <c r="H9">
-        <v>18.00658248559704</v>
+        <v>16.67161459347078</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.88452714692608</v>
+        <v>18.46416310473851</v>
       </c>
       <c r="C10">
-        <v>24.55450604967212</v>
+        <v>12.94620947552828</v>
       </c>
       <c r="D10">
-        <v>9.359962136937812</v>
+        <v>6.45357791833379</v>
       </c>
       <c r="E10">
-        <v>39.46723189786721</v>
+        <v>20.152354983554</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.99488581391917</v>
+        <v>48.59778943477246</v>
       </c>
       <c r="H10">
-        <v>19.71001639109015</v>
+        <v>16.94400391819327</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.24110611065406</v>
+        <v>18.96191511224383</v>
       </c>
       <c r="C11">
-        <v>25.55193318384528</v>
+        <v>13.39359950812954</v>
       </c>
       <c r="D11">
-        <v>9.753660729902569</v>
+        <v>6.553780859266603</v>
       </c>
       <c r="E11">
-        <v>41.3042615360742</v>
+        <v>20.86893411840885</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.46196922444869</v>
+        <v>49.64678310004593</v>
       </c>
       <c r="H11">
-        <v>20.56469159859259</v>
+        <v>17.07194267788611</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.75112890101101</v>
+        <v>19.14769067522225</v>
       </c>
       <c r="C12">
-        <v>25.92760244375163</v>
+        <v>13.55916573058657</v>
       </c>
       <c r="D12">
-        <v>9.901766195576508</v>
+        <v>6.591629420312642</v>
       </c>
       <c r="E12">
-        <v>42.00230161219439</v>
+        <v>21.13437707978427</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.77848430009826</v>
+        <v>50.0410129313067</v>
       </c>
       <c r="H12">
-        <v>20.88944164219899</v>
+        <v>17.12093930088309</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.64142891102572</v>
+        <v>19.10780329974009</v>
       </c>
       <c r="C13">
-        <v>25.84676809682457</v>
+        <v>13.52367898733625</v>
       </c>
       <c r="D13">
-        <v>9.869906609676653</v>
+        <v>6.583482934616441</v>
       </c>
       <c r="E13">
-        <v>41.85180658369247</v>
+        <v>21.07747140573046</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.49471966935383</v>
+        <v>49.95624773781547</v>
       </c>
       <c r="H13">
-        <v>20.8194348477884</v>
+        <v>17.11036307838117</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.28313225784982</v>
+        <v>18.97725409421079</v>
       </c>
       <c r="C14">
-        <v>25.58287419816849</v>
+        <v>13.40729778655098</v>
       </c>
       <c r="D14">
-        <v>9.765862958783615</v>
+        <v>6.556896827453254</v>
       </c>
       <c r="E14">
-        <v>41.36162287701321</v>
+        <v>20.89089048838735</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.57018291797006</v>
+        <v>49.67927886207434</v>
       </c>
       <c r="H14">
-        <v>20.59138084639461</v>
+        <v>17.07596283419317</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.06322419044759</v>
+        <v>18.89693176843526</v>
       </c>
       <c r="C15">
-        <v>25.42099882911667</v>
+        <v>13.3355101302511</v>
       </c>
       <c r="D15">
-        <v>9.702016553765185</v>
+        <v>6.540598419536077</v>
       </c>
       <c r="E15">
-        <v>41.06177944979923</v>
+        <v>20.77583581073895</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.00447238877111</v>
+        <v>49.50922571121736</v>
       </c>
       <c r="H15">
-        <v>20.45186562726398</v>
+        <v>17.05496226936613</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.79528749178436</v>
+        <v>18.43126170911249</v>
       </c>
       <c r="C16">
-        <v>24.48898025439198</v>
+        <v>12.91643142643522</v>
       </c>
       <c r="D16">
-        <v>9.334076616843506</v>
+        <v>6.44701806580672</v>
       </c>
       <c r="E16">
-        <v>39.34734423018212</v>
+        <v>20.10469566929626</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.76858853818389</v>
+        <v>48.5288354861048</v>
       </c>
       <c r="H16">
-        <v>19.65426177673974</v>
+        <v>16.93572131486428</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.00958038233866</v>
+        <v>18.14090583643773</v>
       </c>
       <c r="C17">
-        <v>23.91250928542438</v>
+        <v>12.65245786551281</v>
       </c>
       <c r="D17">
-        <v>9.106243676558222</v>
+        <v>6.389479793570627</v>
       </c>
       <c r="E17">
-        <v>38.2966524483714</v>
+        <v>19.68240396128009</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.78572999454362</v>
+        <v>47.92245474475822</v>
       </c>
       <c r="H17">
-        <v>19.16589954475309</v>
+        <v>16.86358135853085</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.55441869320154</v>
+        <v>17.97222803258557</v>
       </c>
       <c r="C18">
-        <v>23.57891820088245</v>
+        <v>12.49809086689045</v>
       </c>
       <c r="D18">
-        <v>8.974323687488399</v>
+        <v>6.356350372970267</v>
       </c>
       <c r="E18">
-        <v>37.69186033109182</v>
+        <v>19.43561610079631</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.64497397613383</v>
+        <v>47.57199058543674</v>
       </c>
       <c r="H18">
-        <v>18.88508482767059</v>
+        <v>16.82246934792222</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.39972095425449</v>
+        <v>17.91483414019774</v>
       </c>
       <c r="C19">
-        <v>23.46559782580501</v>
+        <v>12.44538854952199</v>
       </c>
       <c r="D19">
-        <v>8.929498577948532</v>
+        <v>6.345128554094193</v>
       </c>
       <c r="E19">
-        <v>37.48693543494347</v>
+        <v>19.35138747389338</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.25859414877289</v>
+        <v>47.45305162446961</v>
       </c>
       <c r="H19">
-        <v>18.78999648528374</v>
+        <v>16.80861585886944</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.09354850700825</v>
+        <v>18.1719889693767</v>
       </c>
       <c r="C20">
-        <v>23.97407856660508</v>
+        <v>12.68082064714636</v>
       </c>
       <c r="D20">
-        <v>9.130585479910106</v>
+        <v>6.395608747443685</v>
       </c>
       <c r="E20">
-        <v>38.40853033717097</v>
+        <v>19.72776065420631</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.99681361530909</v>
+        <v>47.98718284761224</v>
       </c>
       <c r="H20">
-        <v>19.21787286657989</v>
+        <v>16.87122156393976</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.38846212026439</v>
+        <v>19.01567422313103</v>
       </c>
       <c r="C21">
-        <v>25.66043268559736</v>
+        <v>13.44158609503085</v>
       </c>
       <c r="D21">
-        <v>9.796446723279388</v>
+        <v>6.564708723423128</v>
       </c>
       <c r="E21">
-        <v>41.50551049770543</v>
+        <v>20.94585390603109</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.84160977251794</v>
+        <v>49.76071569110167</v>
       </c>
       <c r="H21">
-        <v>20.65832750956745</v>
+        <v>17.08605236691134</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.8676023774132</v>
+        <v>19.55120943140147</v>
       </c>
       <c r="C22">
-        <v>26.7513370010073</v>
+        <v>13.91635596770753</v>
       </c>
       <c r="D22">
-        <v>10.22612654890213</v>
+        <v>6.674648341858315</v>
       </c>
       <c r="E22">
-        <v>43.54546246314118</v>
+        <v>21.7075186290274</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.68506739031498</v>
+        <v>50.90217474088803</v>
       </c>
       <c r="H22">
-        <v>21.60680105929785</v>
+        <v>17.2296418318634</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.07959557207129</v>
+        <v>19.26687808253874</v>
       </c>
       <c r="C23">
-        <v>26.16974642717164</v>
+        <v>13.66500773529066</v>
       </c>
       <c r="D23">
-        <v>9.997173005081194</v>
+        <v>6.616036744970632</v>
       </c>
       <c r="E23">
-        <v>42.45410355253676</v>
+        <v>21.30414102973097</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63009440180011</v>
+        <v>50.29468962087594</v>
       </c>
       <c r="H23">
-        <v>21.09957038641067</v>
+        <v>17.15272427076185</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.05559734083279</v>
+        <v>18.15794171938526</v>
       </c>
       <c r="C24">
-        <v>23.94624992249852</v>
+        <v>12.66800594950329</v>
       </c>
       <c r="D24">
-        <v>9.119583488826869</v>
+        <v>6.392837999820713</v>
       </c>
       <c r="E24">
-        <v>38.35795283386202</v>
+        <v>19.70726737642092</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.90138541011821</v>
+        <v>47.95792499794161</v>
       </c>
       <c r="H24">
-        <v>19.19437594250719</v>
+        <v>16.86776629659516</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.66707682874006</v>
+        <v>16.89862309664548</v>
       </c>
       <c r="C25">
-        <v>21.46852205926748</v>
+        <v>11.49551508760758</v>
       </c>
       <c r="D25">
-        <v>8.13868594997054</v>
+        <v>6.150922776395749</v>
       </c>
       <c r="E25">
-        <v>33.91615817080097</v>
+        <v>17.83563121502668</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.56294954738202</v>
+        <v>45.37464151684937</v>
       </c>
       <c r="H25">
-        <v>17.45116984348102</v>
+        <v>16.57506646223355</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.92361284117466</v>
+        <v>26.03097753623744</v>
       </c>
       <c r="C2">
-        <v>10.54777194214716</v>
+        <v>19.54983408029528</v>
       </c>
       <c r="D2">
-        <v>5.973310286292193</v>
+        <v>7.37776519350833</v>
       </c>
       <c r="E2">
-        <v>16.50105917307264</v>
+        <v>30.55068382096451</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.43456739963639</v>
+        <v>62.43095701100157</v>
       </c>
       <c r="H2">
-        <v>16.37313746056071</v>
+        <v>16.25439692439895</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.23726017800609</v>
+        <v>24.14418387524638</v>
       </c>
       <c r="C3">
-        <v>9.852321343010539</v>
+        <v>18.18101961707861</v>
       </c>
       <c r="D3">
-        <v>5.854069282555279</v>
+        <v>6.834412608815467</v>
       </c>
       <c r="E3">
-        <v>15.55777290136715</v>
+        <v>28.1835562145882</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.1053213618592</v>
+        <v>58.19671502524319</v>
       </c>
       <c r="H3">
-        <v>16.24519574023489</v>
+        <v>15.45677777432864</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.80495104501015</v>
+        <v>22.9329086174333</v>
       </c>
       <c r="C4">
-        <v>9.398936252868783</v>
+        <v>17.3042501963636</v>
       </c>
       <c r="D4">
-        <v>5.781693534853252</v>
+        <v>6.486181175946582</v>
       </c>
       <c r="E4">
-        <v>14.9546961589656</v>
+        <v>26.6805209729157</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.28548885698525</v>
+        <v>55.55361742832285</v>
       </c>
       <c r="H4">
-        <v>16.17115921909263</v>
+        <v>14.97299378156198</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.62634306243389</v>
+        <v>22.42560130777591</v>
       </c>
       <c r="C5">
-        <v>9.207523888391128</v>
+        <v>16.93751032435037</v>
       </c>
       <c r="D5">
-        <v>5.752454022539622</v>
+        <v>6.340474048234526</v>
       </c>
       <c r="E5">
-        <v>14.70319893162104</v>
+        <v>26.05465157151911</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>40.95103312704209</v>
+        <v>54.46540679185906</v>
       </c>
       <c r="H5">
-        <v>16.14214273136993</v>
+        <v>14.77732177143402</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.59654750520033</v>
+        <v>22.34052392894078</v>
       </c>
       <c r="C6">
-        <v>9.175337477102685</v>
+        <v>16.87603427981054</v>
       </c>
       <c r="D6">
-        <v>5.747615442356307</v>
+        <v>6.316046539006881</v>
       </c>
       <c r="E6">
-        <v>14.66110036315606</v>
+        <v>25.9498948558242</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>40.89549158169497</v>
+        <v>54.28403802462866</v>
       </c>
       <c r="H6">
-        <v>16.13739472140733</v>
+        <v>14.74491998906869</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.80255172727553</v>
+        <v>22.92612291407197</v>
       </c>
       <c r="C7">
-        <v>9.396381770561028</v>
+        <v>17.29934286226801</v>
       </c>
       <c r="D7">
-        <v>5.781298114094451</v>
+        <v>6.484231662021466</v>
       </c>
       <c r="E7">
-        <v>14.9513272185959</v>
+        <v>26.67213551682735</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.28097900330539</v>
+        <v>55.53898655247536</v>
       </c>
       <c r="H7">
-        <v>16.17076319902245</v>
+        <v>14.97034890253125</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.68938604657247</v>
+        <v>25.39108959004393</v>
       </c>
       <c r="C8">
-        <v>10.31344150268401</v>
+        <v>19.08519693060664</v>
       </c>
       <c r="D8">
-        <v>5.932047833800303</v>
+        <v>7.193369497023465</v>
       </c>
       <c r="E8">
-        <v>16.1809196962788</v>
+        <v>29.74421693873584</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.97732961778048</v>
+        <v>60.97969973727579</v>
       </c>
       <c r="H8">
-        <v>16.32809614817481</v>
+        <v>15.978107228306</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.33073920920203</v>
+        <v>29.82857058739518</v>
       </c>
       <c r="C9">
-        <v>11.90352378336458</v>
+        <v>22.31631498407996</v>
       </c>
       <c r="D9">
-        <v>6.232437880512101</v>
+        <v>8.474578033812785</v>
       </c>
       <c r="E9">
-        <v>18.48617259078857</v>
+        <v>35.42293026341514</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>46.25187376538107</v>
+        <v>71.37335575323776</v>
       </c>
       <c r="H9">
-        <v>16.67161459347078</v>
+        <v>18.00658248559701</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.46416310473851</v>
+        <v>32.88452714692593</v>
       </c>
       <c r="C10">
-        <v>12.94620947552828</v>
+        <v>24.55450604967194</v>
       </c>
       <c r="D10">
-        <v>6.45357791833379</v>
+        <v>9.359962136937794</v>
       </c>
       <c r="E10">
-        <v>20.152354983554</v>
+        <v>39.46723189786716</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>48.59778943477246</v>
+        <v>78.99488581391869</v>
       </c>
       <c r="H10">
-        <v>16.94400391819327</v>
+        <v>19.71001639109004</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.96191511224383</v>
+        <v>34.24110611065419</v>
       </c>
       <c r="C11">
-        <v>13.39359950812954</v>
+        <v>25.55193318384525</v>
       </c>
       <c r="D11">
-        <v>6.553780859266603</v>
+        <v>9.753660729902672</v>
       </c>
       <c r="E11">
-        <v>20.86893411840885</v>
+        <v>41.30426153607425</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.64678310004593</v>
+        <v>82.46196922444875</v>
       </c>
       <c r="H11">
-        <v>17.07194267788611</v>
+        <v>20.56469159859262</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14769067522225</v>
+        <v>34.75112890101098</v>
       </c>
       <c r="C12">
-        <v>13.55916573058657</v>
+        <v>25.92760244375162</v>
       </c>
       <c r="D12">
-        <v>6.591629420312642</v>
+        <v>9.901766195576478</v>
       </c>
       <c r="E12">
-        <v>21.13437707978427</v>
+        <v>42.00230161219444</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.0410129313067</v>
+        <v>83.7784843000982</v>
       </c>
       <c r="H12">
-        <v>17.12093930088309</v>
+        <v>20.88944164219899</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10780329974009</v>
+        <v>34.64142891102559</v>
       </c>
       <c r="C13">
-        <v>13.52367898733625</v>
+        <v>25.84676809682447</v>
       </c>
       <c r="D13">
-        <v>6.583482934616441</v>
+        <v>9.869906609676637</v>
       </c>
       <c r="E13">
-        <v>21.07747140573046</v>
+        <v>41.85180658369234</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.95624773781547</v>
+        <v>83.49471966935332</v>
       </c>
       <c r="H13">
-        <v>17.11036307838117</v>
+        <v>20.81943484778829</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.97725409421079</v>
+        <v>34.28313225784988</v>
       </c>
       <c r="C14">
-        <v>13.40729778655098</v>
+        <v>25.58287419816822</v>
       </c>
       <c r="D14">
-        <v>6.556896827453254</v>
+        <v>9.765862958783792</v>
       </c>
       <c r="E14">
-        <v>20.89089048838735</v>
+        <v>41.36162287701324</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>49.67927886207434</v>
+        <v>82.57018291797024</v>
       </c>
       <c r="H14">
-        <v>17.07596283419317</v>
+        <v>20.59138084639469</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.89693176843526</v>
+        <v>34.06322419044769</v>
       </c>
       <c r="C15">
-        <v>13.3355101302511</v>
+        <v>25.42099882911644</v>
       </c>
       <c r="D15">
-        <v>6.540598419536077</v>
+        <v>9.702016553765185</v>
       </c>
       <c r="E15">
-        <v>20.77583581073895</v>
+        <v>41.06177944979918</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>49.50922571121736</v>
+        <v>82.00447238877111</v>
       </c>
       <c r="H15">
-        <v>17.05496226936613</v>
+        <v>20.45186562726399</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.43126170911249</v>
+        <v>32.79528749178424</v>
       </c>
       <c r="C16">
-        <v>12.91643142643522</v>
+        <v>24.48898025439197</v>
       </c>
       <c r="D16">
-        <v>6.44701806580672</v>
+        <v>9.334076616843433</v>
       </c>
       <c r="E16">
-        <v>20.10469566929626</v>
+        <v>39.34734423018209</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>48.5288354861048</v>
+        <v>78.76858853818359</v>
       </c>
       <c r="H16">
-        <v>16.93572131486428</v>
+        <v>19.65426177673964</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.14090583643773</v>
+        <v>32.00958038233861</v>
       </c>
       <c r="C17">
-        <v>12.65245786551281</v>
+        <v>23.91250928542425</v>
       </c>
       <c r="D17">
-        <v>6.389479793570627</v>
+        <v>9.106243676558224</v>
       </c>
       <c r="E17">
-        <v>19.68240396128009</v>
+        <v>38.2966524483714</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>47.92245474475822</v>
+        <v>76.78572999454349</v>
       </c>
       <c r="H17">
-        <v>16.86358135853085</v>
+        <v>19.16589954475306</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.97222803258557</v>
+        <v>31.55441869320139</v>
       </c>
       <c r="C18">
-        <v>12.49809086689045</v>
+        <v>23.5789182008823</v>
       </c>
       <c r="D18">
-        <v>6.356350372970267</v>
+        <v>8.97432368748847</v>
       </c>
       <c r="E18">
-        <v>19.43561610079631</v>
+        <v>37.69186033109172</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>47.57199058543674</v>
+        <v>75.64497397613314</v>
       </c>
       <c r="H18">
-        <v>16.82246934792222</v>
+        <v>18.88508482767044</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.91483414019774</v>
+        <v>31.39972095425427</v>
       </c>
       <c r="C19">
-        <v>12.44538854952199</v>
+        <v>23.46559782580498</v>
       </c>
       <c r="D19">
-        <v>6.345128554094193</v>
+        <v>8.929498577948419</v>
       </c>
       <c r="E19">
-        <v>19.35138747389338</v>
+        <v>37.48693543494346</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.45305162446961</v>
+        <v>75.25859414877219</v>
       </c>
       <c r="H19">
-        <v>16.80861585886944</v>
+        <v>18.78999648528355</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.1719889693767</v>
+        <v>32.0935485070082</v>
       </c>
       <c r="C20">
-        <v>12.68082064714636</v>
+        <v>23.97407856660511</v>
       </c>
       <c r="D20">
-        <v>6.395608747443685</v>
+        <v>9.130585479910048</v>
       </c>
       <c r="E20">
-        <v>19.72776065420631</v>
+        <v>38.40853033717095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>47.98718284761224</v>
+        <v>76.99681361530899</v>
       </c>
       <c r="H20">
-        <v>16.87122156393976</v>
+        <v>19.21787286657985</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.01567422313103</v>
+        <v>34.38846212026444</v>
       </c>
       <c r="C21">
-        <v>13.44158609503085</v>
+        <v>25.66043268559746</v>
       </c>
       <c r="D21">
-        <v>6.564708723423128</v>
+        <v>9.796446723279315</v>
       </c>
       <c r="E21">
-        <v>20.94585390603109</v>
+        <v>41.50551049770559</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>49.76071569110167</v>
+        <v>82.84160977251823</v>
       </c>
       <c r="H21">
-        <v>17.08605236691134</v>
+        <v>20.65832750956752</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.55120943140147</v>
+        <v>35.86760237741318</v>
       </c>
       <c r="C22">
-        <v>13.91635596770753</v>
+        <v>26.75133700100745</v>
       </c>
       <c r="D22">
-        <v>6.674648341858315</v>
+        <v>10.22612654890214</v>
       </c>
       <c r="E22">
-        <v>21.7075186290274</v>
+        <v>43.54546246314122</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.90217474088803</v>
+        <v>86.68506739031494</v>
       </c>
       <c r="H22">
-        <v>17.2296418318634</v>
+        <v>21.60680105929784</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.26687808253874</v>
+        <v>35.07959557207126</v>
       </c>
       <c r="C23">
-        <v>13.66500773529066</v>
+        <v>26.16974642717163</v>
       </c>
       <c r="D23">
-        <v>6.616036744970632</v>
+        <v>9.997173005081224</v>
       </c>
       <c r="E23">
-        <v>21.30414102973097</v>
+        <v>42.45410355253675</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>50.29468962087594</v>
+        <v>84.63009440180004</v>
       </c>
       <c r="H23">
-        <v>17.15272427076185</v>
+        <v>21.09957038641065</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.15794171938526</v>
+        <v>32.05559734083261</v>
       </c>
       <c r="C24">
-        <v>12.66800594950329</v>
+        <v>23.94624992249839</v>
       </c>
       <c r="D24">
-        <v>6.392837999820713</v>
+        <v>9.119583488826855</v>
       </c>
       <c r="E24">
-        <v>19.70726737642092</v>
+        <v>38.35795283386199</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>47.95792499794161</v>
+        <v>76.90138541011785</v>
       </c>
       <c r="H24">
-        <v>16.86776629659516</v>
+        <v>19.19437594250714</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.89862309664548</v>
+        <v>28.66707682874001</v>
       </c>
       <c r="C25">
-        <v>11.49551508760758</v>
+        <v>21.46852205926736</v>
       </c>
       <c r="D25">
-        <v>6.150922776395749</v>
+        <v>8.138685949970515</v>
       </c>
       <c r="E25">
-        <v>17.83563121502668</v>
+        <v>33.91615817080112</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>45.37464151684937</v>
+        <v>68.56294954738166</v>
       </c>
       <c r="H25">
-        <v>16.57506646223355</v>
+        <v>17.45116984348098</v>
       </c>
       <c r="I25">
         <v>0</v>
